--- a/v1.0-levensonderhoud-beslissen-Entiteiten-Attributen.xlsx
+++ b/v1.0-levensonderhoud-beslissen-Entiteiten-Attributen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5b10730e956819a/Documenten/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-beslissen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng-my.sharepoint.com/personal/jan_brinkkemper_vng_nl/Documents/Publicatie-EA/Imvertor/Modellen op Github/koppelvlakken/Levensonderhoud-beslissen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{376D1938-FA70-4679-8C87-EB45D851B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE8CF76-8A25-48C2-85C4-EC14E1736ED9}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{376D1938-FA70-4679-8C87-EB45D851B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156708D4-42BB-4CF2-A562-C2A9B2430223}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="0" windowWidth="16520" windowHeight="20970" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="51930" windowHeight="21210" xr2:uid="{459DC88B-0BB4-4CC7-BB02-9EC2264ADF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Besluiten" sheetId="2" r:id="rId1"/>
@@ -495,9 +495,6 @@
     <t>aanvrager</t>
   </si>
   <si>
-    <t>In principe gelijk aan melddatum</t>
-  </si>
-  <si>
     <t>Indien kind van zowel aanvrager als partner: bij beide zelfde opnemen</t>
   </si>
   <si>
@@ -660,6 +657,9 @@
   </si>
   <si>
     <t>Zelfstandige</t>
+  </si>
+  <si>
+    <t>Gelijk aan melddatum</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523A1184-DC70-46E9-AE1A-6F2C9B4C1C01}">
   <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="2" spans="1:5" ht="99.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1121,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1170,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1202,7 +1202,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>6</v>
@@ -1216,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1540,10 +1540,10 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>17</v>
@@ -1597,29 +1597,29 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -1655,7 +1655,7 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1737,10 +1737,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>17</v>
@@ -1841,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -1892,7 +1892,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -1903,7 +1903,7 @@
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -1916,13 +1916,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -1933,18 +1933,18 @@
         <v>108</v>
       </c>
       <c r="E90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -1955,18 +1955,18 @@
         <v>108</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -1977,7 +1977,7 @@
         <v>108</v>
       </c>
       <c r="E94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2088,51 +2088,51 @@
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -2143,18 +2143,18 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>6</v>
@@ -2247,13 +2247,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -2319,20 +2319,20 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>6</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>5</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>6</v>
@@ -2367,7 +2367,7 @@
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>28</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>28</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -2421,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -2432,29 +2432,29 @@
         <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E150" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E151" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -2470,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -2486,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="E155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -2590,7 +2590,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>5</v>
@@ -2721,15 +2721,15 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E184" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>6</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>6</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>6</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D191" s="1"/>
     </row>
